--- a/data/staffInfo.xlsx
+++ b/data/staffInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>userName</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -359,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,6 +425,40 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/staffInfo.xlsx
+++ b/data/staffInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>userName</t>
   </si>
@@ -31,34 +31,46 @@
     <t>Age</t>
   </si>
   <si>
-    <t>sreng_senghuy</t>
-  </si>
-  <si>
-    <t>senghuy123</t>
+    <t>mengly</t>
+  </si>
+  <si>
+    <t>por mengly</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>senghuy</t>
   </si>
   <si>
     <t>sreng senghuy</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>mengly</t>
-  </si>
-  <si>
-    <t>por mengly</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>rosa</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t/>
+    <t>vanna</t>
+  </si>
+  <si>
+    <t>doeun vanna</t>
+  </si>
+  <si>
+    <t>sambath</t>
+  </si>
+  <si>
+    <t>pov sambath</t>
+  </si>
+  <si>
+    <t>su muyu</t>
+  </si>
+  <si>
+    <t>sumuyu</t>
+  </si>
+  <si>
+    <t>muyu</t>
   </si>
 </sst>
 </file>
@@ -368,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,13 +408,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2">
         <v>19</v>
@@ -410,16 +422,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3">
         <v>19</v>
@@ -427,16 +439,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>19</v>
@@ -444,19 +456,53 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/staffInfo.xlsx
+++ b/data/staffInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>userName</t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>pov sambath</t>
-  </si>
-  <si>
-    <t>su muyu</t>
-  </si>
-  <si>
-    <t>sumuyu</t>
-  </si>
-  <si>
-    <t>muyu</t>
   </si>
 </sst>
 </file>
@@ -380,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,23 +479,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/staffInfo.xlsx
+++ b/data/staffInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="15">
   <si>
     <t>userName</t>
   </si>
@@ -31,15 +31,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>mengly</t>
-  </si>
-  <si>
-    <t>por mengly</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>rosa</t>
   </si>
   <si>
@@ -52,6 +43,9 @@
     <t>sreng senghuy</t>
   </si>
   <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>vanna</t>
   </si>
   <si>
@@ -62,6 +56,9 @@
   </si>
   <si>
     <t>pov sambath</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -371,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,10 +399,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>19</v>
@@ -413,10 +410,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -439,7 +436,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>19</v>
@@ -456,10 +453,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -470,13 +467,982 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>1028651880</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>1028651880</v>
       </c>
     </row>
   </sheetData>
